--- a/Apendices/Calculo1.xlsx
+++ b/Apendices/Calculo1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>TOTAL</t>
   </si>
@@ -36,14 +36,14 @@
     <t>Ganaron</t>
   </si>
   <si>
-    <t>year</t>
+    <t>Año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -71,6 +71,10 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,24 +93,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="26">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -435,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+      <selection activeCell="D15" sqref="A9:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -447,101 +503,101 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2009</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>330</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>143</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>106</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2010</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>349</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>116</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>152</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2011</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>411</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>157</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>185</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>2012</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>414</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>124</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>237</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2013</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>410</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>177</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>253</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>840</v>
       </c>
     </row>
@@ -560,6 +616,123 @@
       </c>
       <c r="E7" s="1">
         <v>3564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="13">
+      <c r="A10" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B2/$E$2</f>
+        <v>0.56994818652849744</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:D10" si="0">C2/$E$2</f>
+        <v>0.24697754749568221</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18307426597582038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13">
+      <c r="A11" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B3/$E3</f>
+        <v>0.56564019448946512</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:D11" si="1">C3/$E3</f>
+        <v>0.18800648298217179</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24635332252836303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B4/$E4</f>
+        <v>0.54581673306772904</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:D12" si="2">C4/$E4</f>
+        <v>0.20849933598937584</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.24568393094289509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13">
+      <c r="A13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B5/$E5</f>
+        <v>0.53419354838709676</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:D13" si="3">C5/$E5</f>
+        <v>0.16</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.30580645161290321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13">
+      <c r="A14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B6/$E6</f>
+        <v>0.48809523809523808</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:D14" si="4">C6/$E6</f>
+        <v>0.21071428571428572</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.30119047619047618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B7/$E7</f>
+        <v>0.53703703703703709</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:D15" si="5">C7/$E7</f>
+        <v>0.20117845117845118</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.26178451178451179</v>
       </c>
     </row>
   </sheetData>
